--- a/podi/parameters/techparameters.xlsx
+++ b/podi/parameters/techparameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/PD21/positive-disruption/podi/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9719EF4B-6B98-FA4C-AA30-C4B33526BE21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB36078E-2810-C84E-A4DA-04851CAB17C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{F3F347C8-0A43-9F4E-BD7C-D5217B2966B1}"/>
   </bookViews>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:F904"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
